--- a/scheduling_data.cvs.xlsx
+++ b/scheduling_data.cvs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d4da2eabef6e39d/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{AFBB2492-E32D-489F-9515-7A729A008079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E0FD9E-591F-4866-BED7-C532B317EA3D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{AFBB2492-E32D-489F-9515-7A729A008079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{565C5C1B-1F13-4723-9078-142C9C053660}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6218C246-5345-42A2-9CD3-F98833435C26}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -74,10 +74,22 @@
     <t>cardiology</t>
   </si>
   <si>
-    <t>Established</t>
-  </si>
-  <si>
-    <t>New</t>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>pediatrics</t>
+  </si>
+  <si>
+    <t>dermatology</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -113,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -121,6 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +149,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,14 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55942EE3-9A61-4328-98B3-C84925722931}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -488,53 +506,835 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45658</v>
+        <v>45683</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45658</v>
+        <v>45687</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45659</v>
+        <v>45662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45681</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45669</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45672</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45684</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45663</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45686</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45671</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45680</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45662</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45674</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45662</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45673</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45662</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45688</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45677</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>45675</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45666</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45687</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>45680</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>45659</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>45678</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45670</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>45674</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>45674</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45677</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>45676</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45670</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45672</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45668</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>45659</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>45658</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45662</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45668</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>45674</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45669</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45681</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45673</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45662</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45672</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>45684</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45660</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>45662</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>45661</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45660</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/scheduling_data.cvs.xlsx
+++ b/scheduling_data.cvs.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d4da2eabef6e39d/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{AFBB2492-E32D-489F-9515-7A729A008079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{565C5C1B-1F13-4723-9078-142C9C053660}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{AFBB2492-E32D-489F-9515-7A729A008079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EBEF09A-D704-45EA-B411-3C8FB910E4F0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6218C246-5345-42A2-9CD3-F98833435C26}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +95,18 @@
   <si>
     <t>AB</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Status </t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -134,6 +150,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,8 +172,1675 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[scheduling_data.cvs.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cancelled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>est</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1065-4DF7-A28A-8A796109C6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>est</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1065-4DF7-A28A-8A796109C6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no-show</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>est</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>new</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1065-4DF7-A28A-8A796109C6D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="227507408"/>
+        <c:axId val="227508848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227507408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227508848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227508848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227507408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918872B8-ABED-FAB8-CB7A-6882FF5EF59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Grove" refreshedDate="45978.555310300922" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="49" xr:uid="{28A17F5B-0E06-4C71-9B9C-65844AC09A9C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E50" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-01T00:00:00" maxDate="2025-02-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="Scheduler" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Patient Type" numFmtId="0">
+      <sharedItems count="2">
+        <s v="new"/>
+        <s v="est"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Status " numFmtId="0">
+      <sharedItems count="3">
+        <s v="cancelled"/>
+        <s v="completed"/>
+        <s v="no-show"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="49">
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <s v="JJ"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <s v="JJ"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <s v="GG"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <s v="AB"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <s v="JJ"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <s v="JJ"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <s v="JJ"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="GG"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <s v="GG"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <s v="JJ"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <s v="AB"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <s v="JJ"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="AB"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <s v="GG"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <s v="AB"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <s v="GG"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <s v="JJ"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <s v="GG"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <s v="AB"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <s v="AB"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <s v="JJ"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <s v="JJ"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <s v="LM"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <s v="JJ"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <s v="GG"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <s v="GG"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <s v="AB"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <s v="AB"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="primary care"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <s v="AB"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="cardiology"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <s v="AB"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <s v="AB"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <s v="GG"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="pediatrics"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <s v="LM"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="dermatology"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB22609E-275A-40E1-86C1-7840D6B179A6}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Status " fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,11 +2159,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B89B697-B680-4F59-B114-517EAF0B35E3}">
+  <dimension ref="A3:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55942EE3-9A61-4328-98B3-C84925722931}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
